--- a/textures/SLUS-21214/replacements/Uniform Expansion/FBS/Washington/Washington.xlsx
+++ b/textures/SLUS-21214/replacements/Uniform Expansion/FBS/Washington/Washington.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCSX2-1.7\textures\SLUS-21214\replacements\Uniform Expansion\FBS\Washington\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCSX2-1.7\textures\SLUS-21214\replacements\Uniform Expansion\FBS\Washington\textures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E661335-1C3D-45B4-ABDD-ED85ABE3C78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5142D-D7A7-4E58-B52C-D45FC525C06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="2730" windowWidth="22875" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="3975" windowWidth="22875" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UNIF" sheetId="2" r:id="rId1"/>
@@ -3535,7 +3535,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
